--- a/xlsx/投票制度_intext.xlsx
+++ b/xlsx/投票制度_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="333">
   <si>
     <t>投票制度</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%8F%E9%81%B8%E5%8D%80%E5%88%B6</t>
   </si>
   <si>
-    <t>小選區制</t>
+    <t>小选区制</t>
   </si>
   <si>
     <t>政策_政策_政治_投票制度</t>
@@ -35,19 +35,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%B1%BA%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>多數決原則</t>
+    <t>多数决原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>多數制</t>
+    <t>多数制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%8F%AF%E8%BD%89%E7%A7%BB%E5%96%AE%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>不可轉移單票制</t>
+    <t>不可转移单票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%89%E9%99%90%E6%8A%95%E7%A5%A8%E5%88%B6</t>
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%92%E5%BA%8F%E8%A4%87%E9%81%B8%E5%88%B6</t>
   </si>
   <si>
-    <t>排序複選制</t>
+    <t>排序复选制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E5%A4%9A%E5%A1%9E%E6%8A%95%E7%A5%A8%E6%B3%95</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%81%94%E8%A8%88%E6%95%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>波達計數法</t>
+    <t>波达计数法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%85%8B%E6%9E%97%E5%88%B6</t>
@@ -101,13 +101,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E5%88%86%E6%8A%95%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>計分投票制</t>
+    <t>计分投票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E6%95%B8%E9%81%B8%E5%8D%80%E5%88%B6</t>
   </si>
   <si>
-    <t>複數選區制</t>
+    <t>复数选区制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
@@ -119,79 +119,79 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8D%E5%96%AE%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>名單比例代表制</t>
+    <t>名单比例代表制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%90%8D%E5%96%AE</t>
   </si>
   <si>
-    <t>開放名單</t>
+    <t>开放名单</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E9%96%89%E5%BC%8F%E5%90%8D%E5%96%AE</t>
   </si>
   <si>
-    <t>封閉式名單</t>
+    <t>封闭式名单</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E5%9D%87%E6%95%B8%E6%B3%95</t>
   </si>
   <si>
-    <t>最高均數法</t>
+    <t>最高均数法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E7%8B%84%E6%B3%95</t>
   </si>
   <si>
-    <t>漢狄法</t>
+    <t>汉狄法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E6%8B%89%E5%8F%A4%E6%B3%95</t>
   </si>
   <si>
-    <t>聖拉古法</t>
+    <t>圣拉古法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E9%A4%98%E9%A1%8D%E6%B3%95</t>
   </si>
   <si>
-    <t>最大餘額法</t>
+    <t>最大馀额法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%88%BE%E6%95%B8%E9%A1%8D</t>
   </si>
   <si>
-    <t>黑爾數額</t>
+    <t>黑尔数额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E7%BE%85%E6%99%AE%E6%95%B8%E9%A1%8D</t>
   </si>
   <si>
-    <t>特羅普數額</t>
+    <t>特罗普数额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%A0%E4%BD%A9%E9%87%8C%E4%BA%9E%E5%88%A9%E6%95%B8%E9%A1%8D</t>
   </si>
   <si>
-    <t>因佩里亞利數額</t>
+    <t>因佩里亚利数额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E6%A0%B9%E5%B7%B4%E8%B5%AB%E6%95%B8%E9%A1%8D</t>
   </si>
   <si>
-    <t>哈根巴赫數額</t>
+    <t>哈根巴赫数额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E9%81%B8%E5%8D%80%E5%85%A9%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>單一選區兩票制</t>
+    <t>单一选区两票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E8%BD%89%E7%A7%BB%E5%96%AE%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>可轉移單票制</t>
+    <t>可转移单票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B0%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
@@ -209,13 +209,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E9%81%B8%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>總選票制</t>
+    <t>总选票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>少數代表制</t>
+    <t>少数代表制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B6%E7%AB%8B%E5%88%B6</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%90%E5%88%B6%E9%80%A3%E8%A8%98%E5%88%B6</t>
   </si>
   <si>
-    <t>限制連記制</t>
+    <t>限制连记制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E5%B8%AD%E4%BD%8D%E5%88%B6</t>
   </si>
   <si>
-    <t>雙席位制</t>
+    <t>双席位制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E7%AB%8B%E5%88%B6</t>
@@ -251,19 +251,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%84%E5%B8%B6%E5%B8%AD%E4%BD%8D%E5%88%B6</t>
   </si>
   <si>
-    <t>附帶席位制</t>
+    <t>附带席位制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%BE%85%E6%82%96%E8%AB%96</t>
   </si>
   <si>
-    <t>阿羅悖論</t>
+    <t>阿罗悖论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E9%81%B8%E6%93%87%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>公共選擇理論</t>
+    <t>公共选择理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8%E5%9F%BA%E6%9C%AC%E4%B8%BB%E9%A1%8C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>政治學基本主題列表</t>
+    <t>政治学基本主题列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E7%BB%8F%E6%B5%8E%E5%AD%A6</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%81%E5%BB%BA%E5%88%B6%E5%BA%A6_(%E6%AD%90%E6%B4%B2)</t>
   </si>
   <si>
-    <t>封建制度 (歐洲)</t>
+    <t>封建制度 (欧洲)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8B%AC%E8%A3%81%E6%94%BF%E4%BD%93</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>委員會制</t>
+    <t>委员会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B2%BE%E8%8B%B1%E6%94%BF%E6%B2%BB</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E9%97%9C%E4%BF%82%E7%90%86%E8%AB%96</t>
   </si>
   <si>
-    <t>國際關係理論</t>
+    <t>国际关系理论</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BE%83%E6%94%BF%E6%B2%BB%E5%AD%A6</t>
@@ -473,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B%E5%88%86%E7%AB%8B</t>
   </si>
   <si>
-    <t>權力分立</t>
+    <t>权力分立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%9C%BA%E6%9E%84</t>
@@ -491,7 +491,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>司法機構</t>
+    <t>司法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E9%80%89%E4%B8%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
@@ -515,7 +515,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%BF%83%E7%90%86%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治心理學</t>
+    <t>政治心理学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Biology_and_political_orientation</t>
@@ -575,31 +575,25 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89</t>
   </si>
   <si>
-    <t>選舉</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E6%B0%91</t>
   </si>
   <si>
-    <t>選民</t>
+    <t>选民</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E7%A5%A8</t>
   </si>
   <si>
-    <t>選票</t>
+    <t>选票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%99%E9%81%B8%E4%BA%BA</t>
   </si>
   <si>
-    <t>候選人</t>
+    <t>候选人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%85%B1%E8%A1%8C%E6%94%BF</t>
@@ -611,13 +605,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E5%8D%80</t>
   </si>
   <si>
-    <t>選區</t>
+    <t>选区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A8%8B%E5%BA%8F</t>
@@ -641,43 +635,40 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F%E5%AD%B8</t>
   </si>
   <si>
-    <t>經濟學</t>
+    <t>经济学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B8%E5%AD%B8</t>
   </si>
   <si>
-    <t>數學</t>
+    <t>数学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%91%E6%95%B8%E6%9C%8D%E5%BE%9E%E5%A4%9A%E6%95%B8</t>
   </si>
   <si>
-    <t>少數服從多數</t>
+    <t>少数服从多数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8D%8A%E6%95%B8%E8%A6%8F%E5%89%87</t>
   </si>
   <si>
-    <t>過半數規則</t>
+    <t>过半数规则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AE%97%E6%B3%95</t>
@@ -695,7 +686,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E5%AE%A3%E8%A8%80</t>
   </si>
   <si>
-    <t>國際人權宣言</t>
+    <t>国际人权宣言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E6%9D%83%E5%88%A9%E5%92%8C%E6%94%BF%E6%B2%BB%E6%9D%83%E5%88%A9%E5%9B%BD%E9%99%85%E5%85%AC%E7%BA%A6</t>
@@ -707,25 +698,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E8%81%AF%E7%9B%9F</t>
   </si>
   <si>
-    <t>歐洲聯盟</t>
+    <t>欧洲联盟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%AE%89%E5%85%A8%E5%8F%8A%E5%90%88%E4%BD%9C%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>歐洲安全及合作組織</t>
+    <t>欧洲安全及合作组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A3%E8%A8%98%E6%8A%95%E7%A5%A8</t>
   </si>
   <si>
-    <t>連記投票</t>
+    <t>连记投票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>聯合政府</t>
+    <t>联合政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%8F%B8</t>
@@ -755,13 +746,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E5%B0%8D%E5%A4%9A%E6%95%B8</t>
   </si>
   <si>
-    <t>絕對多數</t>
+    <t>绝对多数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BB%91%E7%90%83%E5%8F%8D%E5%B0%8D%E7%A5%A8</t>
   </si>
   <si>
-    <t>黑球反對票</t>
+    <t>黑球反对票</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E8%89%B2%E5%88%97</t>
@@ -773,25 +764,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E7%88%BE%E8%98%AD</t>
   </si>
   <si>
-    <t>愛爾蘭</t>
+    <t>爱尔兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國</t>
+    <t>英国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E6%99%AE%E6%9F%A5</t>
@@ -803,7 +794,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%91%E5%88%A9%E8%A0%91%E8%9E%88</t>
   </si>
   <si>
-    <t>傑利蠑螈</t>
+    <t>杰利蝾螈</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%94%E5%A4%9A%E5%A1%9E%E6%82%96%E8%AE%BA</t>
@@ -815,7 +806,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A4%87%E6%95%B8%E9%81%B8%E5%8D%80%E5%96%AE%E8%A8%98%E4%B8%8D%E5%8F%AF%E8%AE%93%E6%B8%A1%E6%8A%95%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>複數選區單記不可讓渡投票制</t>
+    <t>复数选区单记不可让渡投票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%85%8D%E7%A5%A8</t>
@@ -845,25 +836,22 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%AB%8B%E5%88%B6</t>
   </si>
   <si>
-    <t>聯立制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8%E5%90%8D%E5%96%AE%E6%AF%94%E4%BE%8B%E4%BB%A3%E8%A1%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>政黨名單比例代表制</t>
+    <t>政党名单比例代表制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E5%A4%A7%E9%A4%98%E9%A1%8D%E6%96%B9%E6%B3%95</t>
   </si>
   <si>
-    <t>最大餘額方法</t>
+    <t>最大馀额方法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E8%A8%98%E5%8F%AF%E8%AE%93%E6%B8%A1%E6%8A%95%E7%A5%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>單記可讓渡投票制</t>
+    <t>单记可让渡投票制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%B0%BC%E6%96%AF%C2%B7%E7%BA%A6%E7%91%9F%E5%A4%AB%C2%B7%E9%98%BF%E7%BD%97</t>
@@ -899,7 +887,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B%E5%A4%A7%E9%9D%A9%E5%91%BD</t>
   </si>
   <si>
-    <t>法國大革命</t>
+    <t>法国大革命</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E7%A7%91%E5%AD%A6%E9%99%A2</t>
@@ -911,7 +899,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%A5%8E%E6%96%AF%C2%B7%E5%AD%94%E5%A4%9A%E5%A1%9E</t>
   </si>
   <si>
-    <t>馬奎斯·孔多塞</t>
+    <t>马奎斯·孔多塞</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E8%92%99%C2%B7%E5%8D%A2%E5%B0%94</t>
@@ -923,7 +911,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>美國憲法</t>
+    <t>美国宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BC%97%E8%AE%AE%E9%99%A2</t>
@@ -935,7 +923,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%C2%B7%E6%BC%A2%E5%BD%8C%E7%88%BE%E9%A0%93</t>
   </si>
   <si>
-    <t>亞歷山大·漢彌爾頓</t>
+    <t>亚历山大·汉弥尔顿</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A9%AC%E6%96%AF%C2%B7%E6%9D%B0%E6%96%90%E9%80%8A</t>
@@ -947,25 +935,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E5%B0%BC%E7%88%BE%C2%B7%E9%9F%8B%E4%BC%AF%E6%96%AF%E7%89%B9</t>
   </si>
   <si>
-    <t>丹尼爾·韋伯斯特</t>
+    <t>丹尼尔·韦伯斯特</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%96%AF%E9%A6%AC%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>塔斯馬尼亞州</t>
+    <t>塔斯马尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%C2%B7%E5%8D%A1%E7%BE%85</t>
   </si>
   <si>
-    <t>路易斯·卡羅</t>
+    <t>路易斯·卡罗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A9%E9%98%B5</t>
@@ -983,7 +971,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%B0%BC%E8%98%87%E9%81%94%E5%B7%9E</t>
   </si>
   <si>
-    <t>明尼蘇達州</t>
+    <t>明尼苏达州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%A6%E7%BF%B0%C2%B7%E5%86%AF%C2%B7%E8%AF%BA%E4%BC%8A%E6%9B%BC</t>
@@ -1001,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%BB%A8%E5%88%B6</t>
   </si>
   <si>
-    <t>兩黨制</t>
+    <t>两党制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>紐西蘭</t>
+    <t>纽西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E5%88%97%E9%A2%A0%E5%93%A5%E4%BC%A6%E6%AF%94%E4%BA%9A</t>
@@ -1019,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E5%8B%99%E5%8D%B0%E6%9B%B8%E9%A4%A8%EF%BC%88%E9%A6%99%E6%B8%AF%EF%BC%89%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>商務印書館（香港）有限公司</t>
+    <t>商务印书馆（香港）有限公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Wayback_Machine</t>
@@ -4267,7 +4255,7 @@
         <v>185</v>
       </c>
       <c r="F100" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="G100" t="n">
         <v>101</v>
@@ -4293,10 +4281,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>186</v>
+      </c>
+      <c r="F101" t="s">
         <v>187</v>
-      </c>
-      <c r="F101" t="s">
-        <v>188</v>
       </c>
       <c r="G101" t="n">
         <v>31</v>
@@ -4322,10 +4310,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>188</v>
+      </c>
+      <c r="F102" t="s">
         <v>189</v>
-      </c>
-      <c r="F102" t="s">
-        <v>190</v>
       </c>
       <c r="G102" t="n">
         <v>45</v>
@@ -4351,10 +4339,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="F103" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="G103" t="n">
         <v>40</v>
@@ -4380,10 +4368,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F104" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G104" t="n">
         <v>36</v>
@@ -4409,10 +4397,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F105" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4438,10 +4426,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F106" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G106" t="n">
         <v>24</v>
@@ -4467,10 +4455,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F107" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -4496,10 +4484,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4525,10 +4513,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F109" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4554,10 +4542,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4583,10 +4571,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F111" t="s">
-        <v>208</v>
+        <v>124</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4612,10 +4600,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F112" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G112" t="n">
         <v>2</v>
@@ -4641,10 +4629,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F113" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G113" t="n">
         <v>11</v>
@@ -4670,10 +4658,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F114" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4699,10 +4687,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F115" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4728,10 +4716,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F116" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G116" t="n">
         <v>3</v>
@@ -4757,10 +4745,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F117" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G117" t="n">
         <v>4</v>
@@ -4786,10 +4774,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F118" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G118" t="n">
         <v>3</v>
@@ -4815,10 +4803,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F119" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G119" t="n">
         <v>6</v>
@@ -4844,10 +4832,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F120" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4873,10 +4861,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F121" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4902,10 +4890,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F122" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4931,10 +4919,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F123" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4960,10 +4948,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F124" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G124" t="n">
         <v>7</v>
@@ -5018,10 +5006,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F126" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G126" t="n">
         <v>2</v>
@@ -5047,10 +5035,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F127" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G127" t="n">
         <v>5</v>
@@ -5076,10 +5064,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F128" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5105,10 +5093,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F129" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5134,10 +5122,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F130" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G130" t="n">
         <v>2</v>
@@ -5163,10 +5151,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F131" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -5192,10 +5180,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F132" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5221,10 +5209,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F133" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5250,10 +5238,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F134" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5279,10 +5267,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F135" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G135" t="n">
         <v>2</v>
@@ -5308,10 +5296,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F136" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G136" t="n">
         <v>6</v>
@@ -5337,10 +5325,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F137" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5366,10 +5354,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F138" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5395,10 +5383,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F139" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5424,10 +5412,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F140" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G140" t="n">
         <v>2</v>
@@ -5453,10 +5441,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F141" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G141" t="n">
         <v>2</v>
@@ -5482,10 +5470,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F142" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5511,10 +5499,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F143" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G143" t="n">
         <v>3</v>
@@ -5540,10 +5528,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F144" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G144" t="n">
         <v>2</v>
@@ -5569,10 +5557,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F145" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -5598,10 +5586,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F146" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G146" t="n">
         <v>2</v>
@@ -5627,10 +5615,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F147" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5656,10 +5644,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F148" t="s">
-        <v>276</v>
+        <v>76</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5685,10 +5673,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="F149" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="G149" t="n">
         <v>3</v>
@@ -5743,10 +5731,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F151" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5772,10 +5760,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="F152" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="G152" t="n">
         <v>7</v>
@@ -5801,10 +5789,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="F153" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5830,10 +5818,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="F154" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="G154" t="n">
         <v>2</v>
@@ -5859,10 +5847,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F155" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G155" t="n">
         <v>4</v>
@@ -5888,10 +5876,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="F156" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="G156" t="n">
         <v>2</v>
@@ -5917,10 +5905,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="F157" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5946,10 +5934,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="F158" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5975,10 +5963,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="F159" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6004,10 +5992,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="F160" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6033,10 +6021,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="F161" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G161" t="n">
         <v>2</v>
@@ -6062,10 +6050,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="F162" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6091,10 +6079,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="F163" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6120,10 +6108,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="F164" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6149,10 +6137,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F165" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6178,10 +6166,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F166" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6207,10 +6195,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F167" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6236,10 +6224,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F168" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6265,10 +6253,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F169" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6294,10 +6282,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F170" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6323,10 +6311,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F171" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6352,10 +6340,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F172" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6381,10 +6369,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F173" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6410,10 +6398,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F174" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -6439,10 +6427,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F175" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G175" t="n">
         <v>4</v>
@@ -6468,10 +6456,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F176" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6497,10 +6485,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F177" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6526,10 +6514,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F178" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -6613,10 +6601,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F181" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6642,10 +6630,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F182" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G182" t="n">
         <v>2</v>

--- a/xlsx/投票制度_intext.xlsx
+++ b/xlsx/投票制度_intext.xlsx
@@ -29,7 +29,7 @@
     <t>小選區制</t>
   </si>
   <si>
-    <t>政策_政策_政治_投票制度</t>
+    <t>体育运动_体育运动_欧洲议会_投票制度</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%B1%BA%E5%8E%9F%E5%89%87</t>
